--- a/普通股分析/宁波精达.xlsx
+++ b/普通股分析/宁波精达.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C5B3AC1-7CD2-405E-9611-35A6B91BF23F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,13 +207,44 @@
   </si>
   <si>
     <t>8年增加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>准备金分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收账款坏账准备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存货跌价准备</t>
+  </si>
+  <si>
+    <t>投资性房地产折旧和摊销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>固定资产折旧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无形资产摊销</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
@@ -279,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -293,6 +323,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -572,25 +606,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O56"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="37.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="3" max="3" width="33.75" customWidth="1"/>
     <col min="4" max="4" width="12.75" customWidth="1"/>
     <col min="8" max="8" width="28.375" customWidth="1"/>
     <col min="9" max="9" width="30.5" customWidth="1"/>
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -598,7 +632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -606,7 +640,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -614,7 +648,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -622,7 +656,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -630,7 +664,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -638,30 +672,28 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B7" s="3">
         <f>SUM(B2:B6)/5</f>
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>1</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="G9" s="1">
-        <v>2</v>
-      </c>
+      <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -679,13 +711,11 @@
         <v>4</v>
       </c>
       <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="H10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>2009</v>
       </c>
@@ -695,14 +725,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="H11" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11">
-        <v>24182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B12">
         <v>2010</v>
       </c>
@@ -712,31 +736,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="H12" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12">
-        <f>SUM(K12:N12)</f>
-        <v>4560</v>
-      </c>
-      <c r="K12">
-        <v>880</v>
-      </c>
-      <c r="L12">
-        <v>1600</v>
-      </c>
-      <c r="M12">
-        <v>880</v>
-      </c>
-      <c r="N12">
-        <v>1200</v>
-      </c>
-      <c r="O12">
-        <f>SUM(K12:N12)</f>
-        <v>4560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B13">
         <v>2011</v>
       </c>
@@ -750,15 +751,8 @@
         <f t="shared" ref="E13:E14" si="0">C13</f>
         <v>6075</v>
       </c>
-      <c r="H13" t="s">
-        <v>7</v>
-      </c>
-      <c r="J13">
-        <f>J11-J12</f>
-        <v>19622</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>2012</v>
       </c>
@@ -772,14 +766,8 @@
         <f t="shared" si="0"/>
         <v>6434</v>
       </c>
-      <c r="I14" t="s">
-        <v>42</v>
-      </c>
-      <c r="J14">
-        <v>5628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>2013</v>
       </c>
@@ -795,14 +783,8 @@
       <c r="F15">
         <v>0.5</v>
       </c>
-      <c r="I15" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15">
-        <v>17625</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>2014</v>
       </c>
@@ -817,13 +799,6 @@
       </c>
       <c r="F16" s="4">
         <v>0.47</v>
-      </c>
-      <c r="H16" t="s">
-        <v>9</v>
-      </c>
-      <c r="J16">
-        <f>J15-J14</f>
-        <v>11997</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -876,13 +851,9 @@
       <c r="F19" s="5">
         <v>0.33</v>
       </c>
-      <c r="H19" s="1">
-        <v>3</v>
-      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1">
-        <v>4</v>
-      </c>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
@@ -905,9 +876,7 @@
         <v>1.69</v>
       </c>
       <c r="H20" s="1"/>
-      <c r="I20" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -932,326 +901,557 @@
         <f>F20/5</f>
         <v>0.33799999999999997</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24">
+        <v>24182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <f>SUM(E25:H25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26">
+        <f>D24-D25</f>
+        <v>24182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28">
+        <v>17625</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29">
+        <f>D28-D27</f>
+        <v>11997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>3</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>4</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="1"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="K22" t="s">
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>12</v>
       </c>
-      <c r="L22">
+      <c r="C34">
         <v>19622</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>5</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="K23" t="s">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>14</v>
       </c>
-      <c r="L23">
-        <f>J12+J16</f>
-        <v>16557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24">
+      <c r="C35">
+        <f>A24+A28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36">
+        <f>C35-C34</f>
+        <v>-19622</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B37" s="1"/>
+      <c r="C37">
         <f>21462-13928</f>
         <v>7534</v>
       </c>
-      <c r="K24" t="s">
-        <v>16</v>
-      </c>
-      <c r="L24">
-        <f>L23-L22</f>
-        <v>-3065</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38">
         <f>43407-22432</f>
         <v>20975</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" t="s">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1"/>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <f>C38-C37</f>
+        <v>13441</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>17305</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1"/>
+      <c r="B41" t="s">
         <v>45</v>
       </c>
-      <c r="C26">
-        <f>C25-C24</f>
-        <v>13441</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B27" t="s">
+      <c r="C41">
+        <f>C39-C40</f>
+        <v>-3864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>19</v>
       </c>
-      <c r="C27">
-        <v>17305</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B28" t="s">
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C28">
-        <f>C26-C27</f>
-        <v>-3864</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A30" s="6" t="s">
+      <c r="C43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B31" t="s">
+      <c r="C45">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="6"/>
-      <c r="B32">
+      <c r="C46">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="6"/>
+      <c r="B47">
         <v>2017</v>
       </c>
-      <c r="C32">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B33">
+      <c r="C47">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B48">
         <v>2016</v>
       </c>
-      <c r="C33">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B34">
+      <c r="C48">
+        <f>SUM(C45:C47)</f>
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B49">
         <v>2015</v>
       </c>
-      <c r="C34">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B35" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
         <v>25</v>
       </c>
-      <c r="C35">
-        <f>SUM(C32:C34)</f>
-        <v>7090</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
+      <c r="C50">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C51">
+        <f>D46-F38</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="C37">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
+      <c r="D52" s="7"/>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
         <v>27</v>
       </c>
-      <c r="C38">
-        <f>D38-F38</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B40" t="s">
-        <v>28</v>
-      </c>
-      <c r="C40">
+      <c r="C53">
         <f>17624-14090</f>
         <v>3534</v>
       </c>
     </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B43" s="8" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C56" s="8"/>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B58" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C43" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B44" s="8"/>
-      <c r="C44" s="7">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B59" s="9"/>
+      <c r="C59" s="7">
         <v>42004</v>
       </c>
-      <c r="D44" s="7">
+      <c r="D59" s="7">
         <v>43100</v>
       </c>
     </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B45" t="s">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
         <v>29</v>
       </c>
-      <c r="C45">
+      <c r="C60">
         <v>17616</v>
       </c>
-      <c r="D45">
+      <c r="D60">
         <v>21955</v>
       </c>
     </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B46" t="s">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
         <v>30</v>
       </c>
-      <c r="C46">
+      <c r="C61">
         <v>14673</v>
       </c>
-      <c r="D46">
+      <c r="D61">
         <v>12960</v>
       </c>
     </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B47" t="s">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
         <v>31</v>
       </c>
-      <c r="C47">
+      <c r="C62">
         <v>6918</v>
       </c>
-      <c r="D47">
+      <c r="D62">
         <v>8192</v>
       </c>
     </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B48" t="s">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
         <v>32</v>
       </c>
-      <c r="C48">
+      <c r="C63">
         <v>13845</v>
       </c>
-      <c r="D48">
+      <c r="D63">
         <v>22255</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B49" t="s">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
         <v>33</v>
       </c>
-      <c r="C49">
-        <f>SUM(C45:C48)</f>
+      <c r="C64">
+        <f>SUM(C60:C63)</f>
         <v>53052</v>
       </c>
-      <c r="D49">
-        <f>SUM(D45:D48)</f>
+      <c r="D64">
+        <f>SUM(D60:D63)</f>
         <v>65362</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B50" t="s">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
         <v>34</v>
       </c>
-      <c r="C50">
+      <c r="C65">
         <v>12493</v>
       </c>
-      <c r="D50">
+      <c r="D65">
         <v>22432</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B51" t="s">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B52" t="s">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
         <v>36</v>
       </c>
-      <c r="C52">
+      <c r="C67">
         <v>8000</v>
       </c>
-      <c r="D52">
+      <c r="D67">
         <v>8000</v>
       </c>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
         <v>37</v>
       </c>
-      <c r="C53">
+      <c r="C68">
         <f>45085-8000</f>
         <v>37085</v>
       </c>
-      <c r="D53">
+      <c r="D68">
         <v>41209</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B69" t="s">
         <v>38</v>
       </c>
-      <c r="C54">
-        <f>SUM(C50:C53)</f>
+      <c r="C69">
+        <f>SUM(C65:C68)</f>
         <v>57578</v>
       </c>
-      <c r="D54">
-        <f>SUM(D50:D53)</f>
+      <c r="D69">
+        <f>SUM(D65:D68)</f>
         <v>71641</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B70" t="s">
         <v>39</v>
       </c>
-      <c r="C55">
-        <f>SUM(C46:C48)</f>
+      <c r="C70">
+        <f>SUM(C61:C63)</f>
         <v>35436</v>
       </c>
-      <c r="D55">
-        <f>SUM(D46:D48)</f>
+      <c r="D70">
+        <f>SUM(D61:D63)</f>
         <v>43407</v>
       </c>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B56" t="s">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B71" t="s">
         <v>40</v>
       </c>
-      <c r="C56">
-        <f>SUM(C46:C47)</f>
+      <c r="C71">
+        <f>SUM(C61:C62)</f>
         <v>21591</v>
       </c>
-      <c r="D56">
-        <f>SUM(D46:D47)</f>
+      <c r="D71">
+        <f>SUM(D61:D62)</f>
         <v>21152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C72" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D72" s="9"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D73" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E73" s="8">
+        <v>2016</v>
+      </c>
+      <c r="F73" s="8">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>309</v>
+      </c>
+      <c r="D74" s="10">
+        <f>C74/9226</f>
+        <v>3.349230435725125E-2</v>
+      </c>
+      <c r="E74" s="10">
+        <f>362/8110</f>
+        <v>4.4636251541307029E-2</v>
+      </c>
+      <c r="F74" s="10">
+        <f>456/8822</f>
+        <v>5.1688959419632738E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B75" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75">
+        <v>785</v>
+      </c>
+      <c r="D75" s="10">
+        <f>C75/23198</f>
+        <v>3.3839124062419172E-2</v>
+      </c>
+      <c r="E75" s="10">
+        <f>397/18847</f>
+        <v>2.1064360375656604E-2</v>
+      </c>
+      <c r="F75" s="10">
+        <f>131/15018</f>
+        <v>8.7228658942602212E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B76" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76">
+        <v>1673</v>
+      </c>
+      <c r="D76" s="10">
+        <f>C76/3977</f>
+        <v>0.42066884586371639</v>
+      </c>
+      <c r="E76" s="10">
+        <f>17/417</f>
+        <v>4.0767386091127102E-2</v>
+      </c>
+      <c r="F76" s="10">
+        <f>17/417</f>
+        <v>4.0767386091127102E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B77" t="s">
+        <v>52</v>
+      </c>
+      <c r="C77">
+        <v>1925</v>
+      </c>
+      <c r="D77" s="10">
+        <f>C77/30378</f>
+        <v>6.3368227006386196E-2</v>
+      </c>
+      <c r="E77" s="10">
+        <f>1698/24439</f>
+        <v>6.9479111256598058E-2</v>
+      </c>
+      <c r="F77" s="10">
+        <f>1753/23968</f>
+        <v>7.3139185580774368E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C78">
+        <v>216</v>
+      </c>
+      <c r="D78" s="10">
+        <f>C78/8615</f>
+        <v>2.5072547881601858E-2</v>
+      </c>
+      <c r="E78" s="10">
+        <f>226/9603</f>
+        <v>2.3534312194106007E-2</v>
+      </c>
+      <c r="F78" s="10">
+        <f>195/9602</f>
+        <v>2.0308269110601958E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C79">
+        <f>SUM(C74:C78)</f>
+        <v>4908</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/普通股分析/宁波精达.xlsx
+++ b/普通股分析/宁波精达.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -244,11 +244,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,7 +309,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -327,6 +327,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -607,13 +610,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74:F78"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="37.25" customWidth="1"/>
     <col min="2" max="2" width="26.75" customWidth="1"/>
@@ -624,7 +627,7 @@
     <col min="11" max="11" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -632,7 +635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>2017</v>
       </c>
@@ -640,7 +643,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -648,7 +651,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>2015</v>
       </c>
@@ -656,7 +659,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2014</v>
       </c>
@@ -664,7 +667,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>2013</v>
       </c>
@@ -672,18 +675,18 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="B7" s="3">
         <f>SUM(B2:B6)/5</f>
         <v>0.33799999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -693,7 +696,7 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
         <v>2</v>
@@ -715,7 +718,7 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="B11">
         <v>2009</v>
       </c>
@@ -726,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="B12">
         <v>2010</v>
       </c>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="B13">
         <v>2011</v>
       </c>
@@ -752,7 +755,7 @@
         <v>6075</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="B14">
         <v>2012</v>
       </c>
@@ -767,7 +770,7 @@
         <v>6434</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="B15">
         <v>2013</v>
       </c>
@@ -784,7 +787,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="B16">
         <v>2014</v>
       </c>
@@ -801,7 +804,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="B17">
         <v>2015</v>
       </c>
@@ -818,7 +821,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="B18">
         <v>2016</v>
       </c>
@@ -835,7 +838,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="B19">
         <v>2017</v>
       </c>
@@ -855,7 +858,7 @@
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" t="s">
         <v>13</v>
       </c>
@@ -874,6 +877,10 @@
       <c r="F20" s="3">
         <f>SUM(F11:F19)</f>
         <v>1.69</v>
+      </c>
+      <c r="G20">
+        <f>2.42/1.12</f>
+        <v>2.1607142857142856</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -881,7 +888,7 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -904,19 +911,19 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="1">
         <v>2</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" t="s">
         <v>41</v>
       </c>
@@ -924,7 +931,7 @@
         <v>24182</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="B25" t="s">
         <v>6</v>
       </c>
@@ -933,7 +940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" t="s">
         <v>7</v>
       </c>
@@ -942,7 +949,7 @@
         <v>24182</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="C27" t="s">
         <v>42</v>
       </c>
@@ -950,7 +957,7 @@
         <v>5628</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="C28" t="s">
         <v>8</v>
       </c>
@@ -958,7 +965,7 @@
         <v>17625</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" t="s">
         <v>9</v>
       </c>
@@ -967,7 +974,7 @@
         <v>11997</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="1">
         <v>3</v>
       </c>
@@ -975,7 +982,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="1"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
@@ -983,20 +990,20 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="1">
         <v>4</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="B33" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1011,7 @@
         <v>19622</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="B35" t="s">
         <v>14</v>
       </c>
@@ -1013,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>16</v>
       </c>
@@ -1022,14 +1029,14 @@
         <v>-19622</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="B37" s="1"/>
       <c r="C37">
         <f>21462-13928</f>
         <v>7534</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1041,7 +1048,7 @@
         <v>20975</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="1"/>
       <c r="B39" t="s">
         <v>43</v>
@@ -1051,7 +1058,7 @@
         <v>13441</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="1"/>
       <c r="B40" t="s">
         <v>18</v>
@@ -1060,7 +1067,7 @@
         <v>17305</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="1"/>
       <c r="B41" t="s">
         <v>45</v>
@@ -1070,388 +1077,388 @@
         <v>-3864</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="B42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3">
       <c r="B43" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="C44" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C45">
-        <v>3105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C45" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
       <c r="B46" t="s">
         <v>24</v>
       </c>
-      <c r="C46">
-        <v>1898</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:3">
       <c r="A47" s="6"/>
       <c r="B47">
         <v>2017</v>
       </c>
       <c r="C47">
-        <v>2087</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+        <v>3105</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
       <c r="B48">
         <v>2016</v>
       </c>
       <c r="C48">
-        <f>SUM(C45:C47)</f>
-        <v>7090</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.2">
+        <v>1898</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
       <c r="B49">
         <v>2015</v>
       </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C49">
+        <v>2087</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
       <c r="B50" t="s">
         <v>25</v>
       </c>
       <c r="C50">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C51">
-        <f>D46-F38</f>
-        <v>0</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
+        <f>SUM(C47:C49)</f>
+        <v>7090</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
       <c r="B52" t="s">
         <v>26</v>
       </c>
-      <c r="D52" s="7"/>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C52">
+        <v>3360</v>
+      </c>
+      <c r="D52" s="8"/>
+    </row>
+    <row r="53" spans="2:4">
       <c r="B53" t="s">
         <v>27</v>
       </c>
       <c r="C53">
+        <f>D47-F38</f>
+        <v>0</v>
+      </c>
+      <c r="D53" s="7"/>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55" t="s">
+        <v>28</v>
+      </c>
+      <c r="C55">
         <f>17624-14090</f>
         <v>3534</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B55" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C56" s="8"/>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B58" s="9" t="s">
+    <row r="58" spans="2:4">
+      <c r="B58" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="8"/>
+      <c r="D58" s="7"/>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59" s="11"/>
+      <c r="C59" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B59" s="9"/>
-      <c r="C59" s="7">
+    <row r="60" spans="2:4">
+      <c r="C60" s="7">
         <v>42004</v>
       </c>
-      <c r="D59" s="7">
+      <c r="D60" s="7">
         <v>43100</v>
       </c>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B60" t="s">
+    <row r="61" spans="2:4">
+      <c r="B61" t="s">
         <v>29</v>
       </c>
-      <c r="C60">
+      <c r="C61">
         <v>17616</v>
       </c>
-      <c r="D60">
+      <c r="D61">
         <v>21955</v>
       </c>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+    <row r="62" spans="2:4">
+      <c r="B62" t="s">
         <v>30</v>
       </c>
-      <c r="C61">
+      <c r="C62">
         <v>14673</v>
       </c>
-      <c r="D61">
+      <c r="D62">
         <v>12960</v>
       </c>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B62" t="s">
+    <row r="63" spans="2:4">
+      <c r="B63" t="s">
         <v>31</v>
       </c>
-      <c r="C62">
+      <c r="C63">
         <v>6918</v>
       </c>
-      <c r="D62">
+      <c r="D63">
         <v>8192</v>
       </c>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B63" t="s">
+    <row r="64" spans="2:4">
+      <c r="B64" t="s">
         <v>32</v>
       </c>
-      <c r="C63">
+      <c r="C64">
         <v>13845</v>
       </c>
-      <c r="D63">
+      <c r="D64">
         <v>22255</v>
       </c>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B64" t="s">
+    <row r="65" spans="1:6">
+      <c r="B65" t="s">
         <v>33</v>
       </c>
-      <c r="C64">
-        <f>SUM(C60:C63)</f>
+      <c r="C65">
+        <f>SUM(C61:C64)</f>
         <v>53052</v>
       </c>
-      <c r="D64">
-        <f>SUM(D60:D63)</f>
+      <c r="D65">
+        <f>SUM(D61:D64)</f>
         <v>65362</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B65" t="s">
+    <row r="66" spans="1:6">
+      <c r="B66" t="s">
         <v>34</v>
       </c>
-      <c r="C65">
+      <c r="C66">
         <v>12493</v>
       </c>
-      <c r="D65">
+      <c r="D66">
         <v>22432</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B66" t="s">
+    <row r="67" spans="1:6">
+      <c r="B67" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B67" t="s">
+    <row r="68" spans="1:6">
+      <c r="B68" t="s">
         <v>36</v>
       </c>
-      <c r="C67">
+      <c r="C68">
         <v>8000</v>
       </c>
-      <c r="D67">
+      <c r="D68">
         <v>8000</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B68" t="s">
+    <row r="69" spans="1:6">
+      <c r="B69" t="s">
         <v>37</v>
       </c>
-      <c r="C68">
+      <c r="C69">
         <f>45085-8000</f>
         <v>37085</v>
       </c>
-      <c r="D68">
+      <c r="D69">
         <v>41209</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B69" t="s">
+    <row r="70" spans="1:6">
+      <c r="B70" t="s">
         <v>38</v>
       </c>
-      <c r="C69">
-        <f>SUM(C65:C68)</f>
+      <c r="C70">
+        <f>SUM(C66:C69)</f>
         <v>57578</v>
       </c>
-      <c r="D69">
-        <f>SUM(D65:D68)</f>
+      <c r="D70">
+        <f>SUM(D66:D69)</f>
         <v>71641</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B70" t="s">
+    <row r="71" spans="1:6">
+      <c r="B71" t="s">
         <v>39</v>
       </c>
-      <c r="C70">
-        <f>SUM(C61:C63)</f>
+      <c r="C71">
+        <f>SUM(C62:C64)</f>
         <v>35436</v>
       </c>
-      <c r="D70">
-        <f>SUM(D61:D63)</f>
+      <c r="D71">
+        <f>SUM(D62:D64)</f>
         <v>43407</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B71" t="s">
+    <row r="72" spans="1:6">
+      <c r="B72" t="s">
         <v>40</v>
       </c>
-      <c r="C71">
-        <f>SUM(C61:C62)</f>
+      <c r="C72">
+        <f>SUM(C62:C63)</f>
         <v>21591</v>
       </c>
-      <c r="D71">
-        <f>SUM(D61:D62)</f>
+      <c r="D72">
+        <f>SUM(D62:D63)</f>
         <v>21152</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C72" s="9">
-        <v>2017</v>
-      </c>
-      <c r="D72" s="9"/>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6">
       <c r="A73" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="C73" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D73" s="9"/>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="C74" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D73" s="8" t="s">
+      <c r="D74" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E73" s="8">
+      <c r="E74" s="8">
         <v>2016</v>
       </c>
-      <c r="F73" s="8">
+      <c r="F74" s="8">
         <v>2015</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B74" t="s">
+    <row r="75" spans="1:6">
+      <c r="B75" t="s">
         <v>47</v>
       </c>
-      <c r="C74">
+      <c r="C75">
         <v>309</v>
       </c>
-      <c r="D74" s="10">
-        <f>C74/9226</f>
-        <v>3.349230435725125E-2</v>
-      </c>
-      <c r="E74" s="10">
+      <c r="D75" s="10">
+        <f>C76/9226</f>
+        <v>8.5085627574246689E-2</v>
+      </c>
+      <c r="E75" s="10">
         <f>362/8110</f>
         <v>4.4636251541307029E-2</v>
       </c>
-      <c r="F74" s="10">
+      <c r="F75" s="10">
         <f>456/8822</f>
         <v>5.1688959419632738E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B75" t="s">
+    <row r="76" spans="1:6">
+      <c r="B76" t="s">
         <v>48</v>
       </c>
-      <c r="C75">
+      <c r="C76">
         <v>785</v>
       </c>
-      <c r="D75" s="10">
-        <f>C75/23198</f>
-        <v>3.3839124062419172E-2</v>
-      </c>
-      <c r="E75" s="10">
+      <c r="D76" s="10">
+        <f>C77/23198</f>
+        <v>7.2118286059143027E-2</v>
+      </c>
+      <c r="E76" s="10">
         <f>397/18847</f>
         <v>2.1064360375656604E-2</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F76" s="10">
         <f>131/15018</f>
         <v>8.7228658942602212E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B76" t="s">
+    <row r="77" spans="1:6">
+      <c r="B77" t="s">
         <v>49</v>
       </c>
-      <c r="C76">
+      <c r="C77">
         <v>1673</v>
       </c>
-      <c r="D76" s="10">
-        <f>C76/3977</f>
-        <v>0.42066884586371639</v>
-      </c>
-      <c r="E76" s="10">
+      <c r="D77" s="10">
+        <f>C78/3977</f>
+        <v>0.4840331908473724</v>
+      </c>
+      <c r="E77" s="10">
         <f>17/417</f>
         <v>4.0767386091127102E-2</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <f>17/417</f>
         <v>4.0767386091127102E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
+    <row r="78" spans="1:6">
+      <c r="B78" t="s">
         <v>52</v>
       </c>
-      <c r="C77">
+      <c r="C78">
         <v>1925</v>
       </c>
-      <c r="D77" s="10">
-        <f>C77/30378</f>
-        <v>6.3368227006386196E-2</v>
-      </c>
-      <c r="E77" s="10">
+      <c r="D78" s="10">
+        <f>C79/30378</f>
+        <v>7.1104088485087896E-3</v>
+      </c>
+      <c r="E78" s="10">
         <f>1698/24439</f>
         <v>6.9479111256598058E-2</v>
       </c>
-      <c r="F77" s="10">
+      <c r="F78" s="10">
         <f>1753/23968</f>
         <v>7.3139185580774368E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B78" t="s">
+    <row r="79" spans="1:6">
+      <c r="B79" t="s">
         <v>53</v>
       </c>
-      <c r="C78">
+      <c r="C79">
         <v>216</v>
       </c>
-      <c r="D78" s="10">
-        <f>C78/8615</f>
-        <v>2.5072547881601858E-2</v>
-      </c>
-      <c r="E78" s="10">
+      <c r="D79" s="10">
+        <f>C80/8615</f>
+        <v>0.56970400464306448</v>
+      </c>
+      <c r="E79" s="10">
         <f>226/9603</f>
         <v>2.3534312194106007E-2</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <f>195/9602</f>
         <v>2.0308269110601958E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="C79">
-        <f>SUM(C74:C78)</f>
+    <row r="80" spans="1:6">
+      <c r="C80">
+        <f>SUM(C75:C79)</f>
         <v>4908</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C72:D72"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
